--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.78271433333333</v>
+        <v>36.71718733333334</v>
       </c>
       <c r="H2">
-        <v>113.348143</v>
+        <v>110.151562</v>
       </c>
       <c r="I2">
-        <v>0.7852424281394679</v>
+        <v>0.728743057485239</v>
       </c>
       <c r="J2">
-        <v>0.7883081272171703</v>
+        <v>0.7328478088626956</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N2">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O2">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P2">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q2">
-        <v>5.437637869900889</v>
+        <v>21.31228332357178</v>
       </c>
       <c r="R2">
-        <v>48.93874082910799</v>
+        <v>191.810549912146</v>
       </c>
       <c r="S2">
-        <v>0.0004730165058184966</v>
+        <v>0.001771773326999303</v>
       </c>
       <c r="T2">
-        <v>0.0004752684569682869</v>
+        <v>0.001784797419430879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.78271433333333</v>
+        <v>36.71718733333334</v>
       </c>
       <c r="H3">
-        <v>113.348143</v>
+        <v>110.151562</v>
       </c>
       <c r="I3">
-        <v>0.7852424281394679</v>
+        <v>0.728743057485239</v>
       </c>
       <c r="J3">
-        <v>0.7883081272171703</v>
+        <v>0.7328478088626956</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.340352</v>
       </c>
       <c r="O3">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P3">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q3">
-        <v>4.286474129592889</v>
+        <v>4.165589381091555</v>
       </c>
       <c r="R3">
-        <v>38.578267166336</v>
+        <v>37.490304429824</v>
       </c>
       <c r="S3">
-        <v>0.0003728775368225038</v>
+        <v>0.0003463017098917133</v>
       </c>
       <c r="T3">
-        <v>0.0003746527433691029</v>
+        <v>0.0003488473320715443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.78271433333333</v>
+        <v>36.71718733333334</v>
       </c>
       <c r="H4">
-        <v>113.348143</v>
+        <v>110.151562</v>
       </c>
       <c r="I4">
-        <v>0.7852424281394679</v>
+        <v>0.728743057485239</v>
       </c>
       <c r="J4">
-        <v>0.7883081272171703</v>
+        <v>0.7328478088626956</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N4">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O4">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P4">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q4">
-        <v>3752.404958896637</v>
+        <v>4997.210542363537</v>
       </c>
       <c r="R4">
-        <v>33771.64463006974</v>
+        <v>44974.89488127182</v>
       </c>
       <c r="S4">
-        <v>0.3264192144714556</v>
+        <v>0.4154376241126089</v>
       </c>
       <c r="T4">
-        <v>0.3279732408453781</v>
+        <v>0.4184914560749403</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.78271433333333</v>
+        <v>36.71718733333334</v>
       </c>
       <c r="H5">
-        <v>113.348143</v>
+        <v>110.151562</v>
       </c>
       <c r="I5">
-        <v>0.7852424281394679</v>
+        <v>0.728743057485239</v>
       </c>
       <c r="J5">
-        <v>0.7883081272171703</v>
+        <v>0.7328478088626956</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N5">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O5">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P5">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q5">
-        <v>23.089696817958</v>
+        <v>44.85584564326533</v>
       </c>
       <c r="R5">
-        <v>138.538180907748</v>
+        <v>269.135073859592</v>
       </c>
       <c r="S5">
-        <v>0.002008557386598829</v>
+        <v>0.003729041589027455</v>
       </c>
       <c r="T5">
-        <v>0.001345413191179952</v>
+        <v>0.002504302216551445</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.78271433333333</v>
+        <v>36.71718733333334</v>
       </c>
       <c r="H6">
-        <v>113.348143</v>
+        <v>110.151562</v>
       </c>
       <c r="I6">
-        <v>0.7852424281394679</v>
+        <v>0.728743057485239</v>
       </c>
       <c r="J6">
-        <v>0.7883081272171703</v>
+        <v>0.7328478088626956</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N6">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O6">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P6">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q6">
-        <v>5241.662771896512</v>
+        <v>3698.350492606197</v>
       </c>
       <c r="R6">
-        <v>47174.96494706861</v>
+        <v>33285.15443345577</v>
       </c>
       <c r="S6">
-        <v>0.4559687622387725</v>
+        <v>0.3074583167467117</v>
       </c>
       <c r="T6">
-        <v>0.4581395519802748</v>
+        <v>0.3097184058197014</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.812943</v>
       </c>
       <c r="I7">
-        <v>0.02641494196933943</v>
+        <v>0.02522574977045663</v>
       </c>
       <c r="J7">
-        <v>0.02651806969185035</v>
+        <v>0.0253678374789488</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N7">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O7">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P7">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q7">
-        <v>0.1829178908786667</v>
+        <v>0.7377337192243333</v>
       </c>
       <c r="R7">
-        <v>1.646261017908</v>
+        <v>6.639603473018999</v>
       </c>
       <c r="S7">
-        <v>1.591190580638887E-05</v>
+        <v>6.133068457775209E-05</v>
       </c>
       <c r="T7">
-        <v>1.598765968418231E-05</v>
+        <v>6.178151905677954E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.812943</v>
       </c>
       <c r="I8">
-        <v>0.02641494196933943</v>
+        <v>0.02522574977045663</v>
       </c>
       <c r="J8">
-        <v>0.02651806969185035</v>
+        <v>0.0253678374789488</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.340352</v>
       </c>
       <c r="O8">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P8">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q8">
         <v>0.1441936417706667</v>
@@ -948,10 +948,10 @@
         <v>1.297742775936</v>
       </c>
       <c r="S8">
-        <v>1.254330910286381E-05</v>
+        <v>1.198738044785637E-05</v>
       </c>
       <c r="T8">
-        <v>1.260302566456706E-05</v>
+        <v>1.207549823842598E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.812943</v>
       </c>
       <c r="I9">
-        <v>0.02641494196933943</v>
+        <v>0.02522574977045663</v>
       </c>
       <c r="J9">
-        <v>0.02651806969185035</v>
+        <v>0.0253678374789488</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N9">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O9">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P9">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q9">
-        <v>126.2279720029487</v>
+        <v>172.9805607026367</v>
       </c>
       <c r="R9">
-        <v>1136.051748026538</v>
+        <v>1556.82504632373</v>
       </c>
       <c r="S9">
-        <v>0.01098048742522791</v>
+        <v>0.01438054941787211</v>
       </c>
       <c r="T9">
-        <v>0.01103276365867501</v>
+        <v>0.01448625910543829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.812943</v>
       </c>
       <c r="I10">
-        <v>0.02641494196933943</v>
+        <v>0.02522574977045663</v>
       </c>
       <c r="J10">
-        <v>0.02651806969185035</v>
+        <v>0.0253678374789488</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N10">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O10">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P10">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q10">
-        <v>0.776719366758</v>
+        <v>1.552704106498</v>
       </c>
       <c r="R10">
-        <v>4.660316200548</v>
+        <v>9.316224638987999</v>
       </c>
       <c r="S10">
-        <v>6.756630170227227E-05</v>
+        <v>0.0001290823549428297</v>
       </c>
       <c r="T10">
-        <v>4.525864891687955E-05</v>
+        <v>8.668748252961057E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.812943</v>
       </c>
       <c r="I11">
-        <v>0.02641494196933943</v>
+        <v>0.02522574977045663</v>
       </c>
       <c r="J11">
-        <v>0.02651806969185035</v>
+        <v>0.0253678374789488</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N11">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O11">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P11">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q11">
-        <v>176.3254416480683</v>
+        <v>128.0199696335613</v>
       </c>
       <c r="R11">
-        <v>1586.928974832615</v>
+        <v>1152.179726702052</v>
       </c>
       <c r="S11">
-        <v>0.01533843302749999</v>
+        <v>0.01064279993261609</v>
       </c>
       <c r="T11">
-        <v>0.0154114566989097</v>
+        <v>0.01072103387368569</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.189763</v>
+        <v>7.275657333333332</v>
       </c>
       <c r="H12">
-        <v>9.569288999999999</v>
+        <v>21.826972</v>
       </c>
       <c r="I12">
-        <v>0.06629320543811909</v>
+        <v>0.1444033477339586</v>
       </c>
       <c r="J12">
-        <v>0.06655202362150625</v>
+        <v>0.1452167206154317</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N12">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O12">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P12">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q12">
-        <v>0.4590664379426666</v>
+        <v>4.223114070408444</v>
       </c>
       <c r="R12">
-        <v>4.131597941483999</v>
+        <v>38.008026633676</v>
       </c>
       <c r="S12">
-        <v>3.993388445673411E-05</v>
+        <v>0.0003510839619211267</v>
       </c>
       <c r="T12">
-        <v>4.012400289004824E-05</v>
+        <v>0.0003536647378599138</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.189763</v>
+        <v>7.275657333333332</v>
       </c>
       <c r="H13">
-        <v>9.569288999999999</v>
+        <v>21.826972</v>
       </c>
       <c r="I13">
-        <v>0.06629320543811909</v>
+        <v>0.1444033477339586</v>
       </c>
       <c r="J13">
-        <v>0.06655202362150625</v>
+        <v>0.1452167206154317</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.340352</v>
       </c>
       <c r="O13">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P13">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q13">
-        <v>0.3618807388586666</v>
+        <v>0.8254281749048887</v>
       </c>
       <c r="R13">
-        <v>3.256926649728</v>
+        <v>7.428853574143999</v>
       </c>
       <c r="S13">
-        <v>3.147976505854781E-05</v>
+        <v>6.862106708353848E-05</v>
       </c>
       <c r="T13">
-        <v>3.162963486699362E-05</v>
+        <v>6.912549228671218E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.189763</v>
+        <v>7.275657333333332</v>
       </c>
       <c r="H14">
-        <v>9.569288999999999</v>
+        <v>21.826972</v>
       </c>
       <c r="I14">
-        <v>0.06629320543811909</v>
+        <v>0.1444033477339586</v>
       </c>
       <c r="J14">
-        <v>0.06655202362150625</v>
+        <v>0.1452167206154317</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N14">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O14">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P14">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q14">
-        <v>316.7925520995526</v>
+        <v>990.2172298407688</v>
       </c>
       <c r="R14">
-        <v>2851.132968895974</v>
+        <v>8911.95506856692</v>
       </c>
       <c r="S14">
-        <v>0.02755757364662199</v>
+        <v>0.08232062464309346</v>
       </c>
       <c r="T14">
-        <v>0.02768877056870731</v>
+        <v>0.08292575364466416</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.189763</v>
+        <v>7.275657333333332</v>
       </c>
       <c r="H15">
-        <v>9.569288999999999</v>
+        <v>21.826972</v>
       </c>
       <c r="I15">
-        <v>0.06629320543811909</v>
+        <v>0.1444033477339586</v>
       </c>
       <c r="J15">
-        <v>0.06655202362150625</v>
+        <v>0.1452167206154317</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,28 +1364,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N15">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O15">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P15">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q15">
-        <v>1.949321585034</v>
+        <v>8.888364986525332</v>
       </c>
       <c r="R15">
-        <v>11.695929510204</v>
+        <v>53.33018991915199</v>
       </c>
       <c r="S15">
-        <v>0.0001695701896540901</v>
+        <v>0.0007389244861596946</v>
       </c>
       <c r="T15">
-        <v>0.0001135849896615704</v>
+        <v>0.00049623748740128</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.189763</v>
+        <v>7.275657333333332</v>
       </c>
       <c r="H16">
-        <v>9.569288999999999</v>
+        <v>21.826972</v>
       </c>
       <c r="I16">
-        <v>0.06629320543811909</v>
+        <v>0.1444033477339586</v>
       </c>
       <c r="J16">
-        <v>0.06655202362150625</v>
+        <v>0.1452167206154317</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N16">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O16">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P16">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q16">
-        <v>442.5214615542383</v>
+        <v>732.842922811223</v>
       </c>
       <c r="R16">
-        <v>3982.693153988144</v>
+        <v>6595.586305301008</v>
       </c>
       <c r="S16">
-        <v>0.03849464795232774</v>
+        <v>0.06092409357570078</v>
       </c>
       <c r="T16">
-        <v>0.03867791442538032</v>
+        <v>0.06137193925321967</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.5613635</v>
+        <v>0.8466215</v>
       </c>
       <c r="H17">
-        <v>1.122727</v>
+        <v>1.693243</v>
       </c>
       <c r="I17">
-        <v>0.01166688115416775</v>
+        <v>0.01680328982832053</v>
       </c>
       <c r="J17">
-        <v>0.007808286887824462</v>
+        <v>0.0112652912032432</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N17">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O17">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P17">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q17">
-        <v>0.08079068643533334</v>
+        <v>0.4914166521531667</v>
       </c>
       <c r="R17">
-        <v>0.484744118612</v>
+        <v>2.948499912919</v>
       </c>
       <c r="S17">
-        <v>7.027928139873671E-06</v>
+        <v>4.085338504135259E-05</v>
       </c>
       <c r="T17">
-        <v>4.707591273785878E-06</v>
+        <v>2.743579557110048E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.5613635</v>
+        <v>0.8466215</v>
       </c>
       <c r="H18">
-        <v>1.122727</v>
+        <v>1.693243</v>
       </c>
       <c r="I18">
-        <v>0.01166688115416775</v>
+        <v>0.01680328982832053</v>
       </c>
       <c r="J18">
-        <v>0.007808286887824462</v>
+        <v>0.0112652912032432</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.340352</v>
       </c>
       <c r="O18">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P18">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q18">
-        <v>0.06368706331733333</v>
+        <v>0.09604977358933332</v>
       </c>
       <c r="R18">
-        <v>0.382122379904</v>
+        <v>0.576298641536</v>
       </c>
       <c r="S18">
-        <v>5.540095327597726E-06</v>
+        <v>7.984992707078104E-06</v>
       </c>
       <c r="T18">
-        <v>3.710980519588775E-06</v>
+        <v>5.362459618128865E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.5613635</v>
+        <v>0.8466215</v>
       </c>
       <c r="H19">
-        <v>1.122727</v>
+        <v>1.693243</v>
       </c>
       <c r="I19">
-        <v>0.01166688115416775</v>
+        <v>0.01680328982832053</v>
       </c>
       <c r="J19">
-        <v>0.007808286887824462</v>
+        <v>0.0112652912032432</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N19">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O19">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P19">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q19">
-        <v>55.75203418578033</v>
+        <v>115.2252171927883</v>
       </c>
       <c r="R19">
-        <v>334.512205114682</v>
+        <v>691.3513031567301</v>
       </c>
       <c r="S19">
-        <v>0.004849832415065158</v>
+        <v>0.009579122204803227</v>
       </c>
       <c r="T19">
-        <v>0.003248614428333501</v>
+        <v>0.006433024785964453</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.5613635</v>
+        <v>0.8466215</v>
       </c>
       <c r="H20">
-        <v>1.122727</v>
+        <v>1.693243</v>
       </c>
       <c r="I20">
-        <v>0.01166688115416775</v>
+        <v>0.01680328982832053</v>
       </c>
       <c r="J20">
-        <v>0.007808286887824462</v>
+        <v>0.0112652912032432</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,28 +1674,28 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N20">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O20">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P20">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q20">
-        <v>0.343059339393</v>
+        <v>1.034281928447</v>
       </c>
       <c r="R20">
-        <v>1.372237357572</v>
+        <v>4.137127713788</v>
       </c>
       <c r="S20">
-        <v>2.984250402298974E-05</v>
+        <v>8.59838950898801E-05</v>
       </c>
       <c r="T20">
-        <v>1.332647960446863E-05</v>
+        <v>3.849597882288967E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.5613635</v>
+        <v>0.8466215</v>
       </c>
       <c r="H21">
-        <v>1.122727</v>
+        <v>1.693243</v>
       </c>
       <c r="I21">
-        <v>0.01166688115416775</v>
+        <v>0.01680328982832053</v>
       </c>
       <c r="J21">
-        <v>0.007808286887824462</v>
+        <v>0.0112652912032432</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N21">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O21">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P21">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q21">
-        <v>77.87895103278916</v>
+        <v>85.27622263520867</v>
       </c>
       <c r="R21">
-        <v>467.273706196735</v>
+        <v>511.657335811252</v>
       </c>
       <c r="S21">
-        <v>0.006774638211612127</v>
+        <v>0.007089345350678991</v>
       </c>
       <c r="T21">
-        <v>0.004537927408093117</v>
+        <v>0.004760972183266623</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.311165</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H22">
-        <v>15.933495</v>
+        <v>12.82147</v>
       </c>
       <c r="I22">
-        <v>0.1103825432989058</v>
+        <v>0.08482455518202518</v>
       </c>
       <c r="J22">
-        <v>0.1108134925816486</v>
+        <v>0.08530234183968073</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N22">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O22">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P22">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q22">
-        <v>0.7643757852466666</v>
+        <v>2.480716535501111</v>
       </c>
       <c r="R22">
-        <v>6.87938206722</v>
+        <v>22.32644881951</v>
       </c>
       <c r="S22">
-        <v>6.649254174703584E-05</v>
+        <v>0.0002062316516121828</v>
       </c>
       <c r="T22">
-        <v>6.680910143152425E-05</v>
+        <v>0.0002077476356559559</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.311165</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H23">
-        <v>15.933495</v>
+        <v>12.82147</v>
       </c>
       <c r="I23">
-        <v>0.1103825432989058</v>
+        <v>0.08482455518202518</v>
       </c>
       <c r="J23">
-        <v>0.1108134925816486</v>
+        <v>0.08530234183968073</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.340352</v>
       </c>
       <c r="O23">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P23">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q23">
-        <v>0.6025552100266666</v>
+        <v>0.4848681063822222</v>
       </c>
       <c r="R23">
-        <v>5.42299689024</v>
+        <v>4.36381295744</v>
       </c>
       <c r="S23">
-        <v>5.24158774138336E-05</v>
+        <v>4.030897886246321E-05</v>
       </c>
       <c r="T23">
-        <v>5.266542049310755E-05</v>
+        <v>4.060528531347874E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.311165</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H24">
-        <v>15.933495</v>
+        <v>12.82147</v>
       </c>
       <c r="I24">
-        <v>0.1103825432989058</v>
+        <v>0.08482455518202518</v>
       </c>
       <c r="J24">
-        <v>0.1108134925816486</v>
+        <v>0.08530234183968073</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N24">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O24">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P24">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q24">
-        <v>527.4804162477966</v>
+        <v>581.6675123735223</v>
       </c>
       <c r="R24">
-        <v>4747.32374623017</v>
+        <v>5235.0076113617</v>
       </c>
       <c r="S24">
-        <v>0.04588517097880346</v>
+        <v>0.04835629143807413</v>
       </c>
       <c r="T24">
-        <v>0.04610362247525863</v>
+        <v>0.04871175271505605</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.311165</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H25">
-        <v>15.933495</v>
+        <v>12.82147</v>
       </c>
       <c r="I25">
-        <v>0.1103825432989058</v>
+        <v>0.08482455518202518</v>
       </c>
       <c r="J25">
-        <v>0.1108134925816486</v>
+        <v>0.08530234183968073</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1984,28 +1984,28 @@
         <v>0.5</v>
       </c>
       <c r="M25">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N25">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O25">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P25">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q25">
-        <v>3.24574853247</v>
+        <v>5.221150465753333</v>
       </c>
       <c r="R25">
-        <v>19.47449119482</v>
+        <v>31.32690279452</v>
       </c>
       <c r="S25">
-        <v>0.0002823455085328175</v>
+        <v>0.0004340546243226931</v>
       </c>
       <c r="T25">
-        <v>0.0001891264716582062</v>
+        <v>0.0002914968717415723</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.311165</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H26">
-        <v>15.933495</v>
+        <v>12.82147</v>
       </c>
       <c r="I26">
-        <v>0.1103825432989058</v>
+        <v>0.08482455518202518</v>
       </c>
       <c r="J26">
-        <v>0.1108134925816486</v>
+        <v>0.08530234183968073</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N26">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O26">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P26">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q26">
-        <v>736.8273123601083</v>
+        <v>430.4822285718978</v>
       </c>
       <c r="R26">
-        <v>6631.445811240975</v>
+        <v>3874.34005714708</v>
       </c>
       <c r="S26">
-        <v>0.0640961183924087</v>
+        <v>0.03578766848915371</v>
       </c>
       <c r="T26">
-        <v>0.06440126911280716</v>
+        <v>0.03605073933191368</v>
       </c>
     </row>
   </sheetData>
